--- a/Traduzido/PTBR/Lang/PTBR/Game/Tactics.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Tactics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDED9F4F-19C8-46F8-B5FF-A662344DE185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813A96B-3295-4117-A2AC-85CC113028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,9 +199,6 @@
     <t>Mago</t>
   </si>
   <si>
-    <t>Maldizente</t>
-  </si>
-  <si>
     <t>Invocador</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Paladino</t>
+  </si>
+  <si>
+    <t>Xamã</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C15"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -760,7 +760,7 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -777,7 +777,7 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -794,7 +794,7 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -811,7 +811,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -828,7 +828,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -845,7 +845,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Tactics.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Tactics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813A96B-3295-4117-A2AC-85CC113028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCB5E22-3BA7-4B1E-BC3C-B7BA1B55A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactics" sheetId="1" r:id="rId1"/>
@@ -208,16 +208,16 @@
     <t>Atirador</t>
   </si>
   <si>
-    <t>Mago de Guerra</t>
-  </si>
-  <si>
     <t>Ladino</t>
   </si>
   <si>
     <t>Paladino</t>
   </si>
   <si>
-    <t>Xamã</t>
+    <t>Conjurador Sombrio</t>
+  </si>
+  <si>
+    <t>Mago de Batalha</t>
   </si>
 </sst>
 </file>
@@ -599,12 +599,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -743,7 +745,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -811,7 +813,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -828,7 +830,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -845,7 +847,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Tactics.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Tactics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCB5E22-3BA7-4B1E-BC3C-B7BA1B55A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813A96B-3295-4117-A2AC-85CC113028DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactics" sheetId="1" r:id="rId1"/>
@@ -208,16 +208,16 @@
     <t>Atirador</t>
   </si>
   <si>
+    <t>Mago de Guerra</t>
+  </si>
+  <si>
     <t>Ladino</t>
   </si>
   <si>
     <t>Paladino</t>
   </si>
   <si>
-    <t>Conjurador Sombrio</t>
-  </si>
-  <si>
-    <t>Mago de Batalha</t>
+    <t>Xamã</t>
   </si>
 </sst>
 </file>
@@ -599,14 +599,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,7 +743,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -813,7 +811,7 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -830,7 +828,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -847,7 +845,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
